--- a/data/trans_orig/P19D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFAD9BB-731B-444A-BE18-057A70A64512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7637B94A-C4DA-4C82-80FF-2D2A3EEC1B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B6CB988-3AA5-4E0B-B385-99DED6CEB0A0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{52E7E2D9-D7D9-43D3-81AA-59D01DB6707B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="870">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -914,7 +914,88 @@
     <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -1085,1002 +1166,993 @@
     <t>18,19%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
     <t>1,95%</t>
   </si>
   <si>
@@ -2129,490 +2201,454 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +3060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B76B2B-990E-4BB3-948A-512230F1B499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507DD6B2-1E34-4012-ABE5-7B7B26040CDB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5473,7 +5509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2256FA24-D2F5-44E5-B896-BA544F100399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF99479F-31BA-4EFF-9C39-3B81E0AE06AA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5593,12 +5629,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>291</v>
@@ -5606,28 +5644,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,43 +5678,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="D5" s="7">
+        <v>204504</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="I5" s="7">
+        <v>209186</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>386</v>
+      </c>
+      <c r="N5" s="7">
+        <v>413690</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,43 +5729,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7846</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6189</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N6" s="7">
+        <v>14035</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,43 +5780,49 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>38210</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I7" s="7">
+        <v>35845</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="N7" s="7">
+        <v>74056</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,43 +5831,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D8" s="7">
+        <v>250560</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="I8" s="7">
+        <v>251220</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>465</v>
+      </c>
+      <c r="N8" s="7">
+        <v>501780</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +5911,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5854,7 +5920,7 @@
         <v>1010</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
@@ -5875,13 +5941,13 @@
         <v>311278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>342</v>
@@ -5890,13 +5956,13 @@
         <v>374011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>639</v>
@@ -5905,13 +5971,13 @@
         <v>685289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,10 +5992,10 @@
         <v>18234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>285</v>
@@ -5944,10 +6010,10 @@
         <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5956,13 +6022,13 @@
         <v>28701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +6043,13 @@
         <v>75808</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>50</v>
@@ -5992,13 +6058,13 @@
         <v>53270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -6007,13 +6073,13 @@
         <v>129078</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,7 +6153,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6102,7 +6168,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6117,7 +6183,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6198,13 @@
         <v>239521</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -6147,13 +6213,13 @@
         <v>277424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="M15" s="7">
         <v>492</v>
@@ -6162,13 +6228,13 @@
         <v>516945</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6249,13 @@
         <v>7852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6198,13 +6264,13 @@
         <v>4085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -6213,13 +6279,13 @@
         <v>11937</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6300,13 @@
         <v>45361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -6249,13 +6315,13 @@
         <v>47243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -6264,13 +6330,13 @@
         <v>92604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6359,7 +6425,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6374,7 +6440,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,49 +6449,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>439</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>461595</v>
+        <v>257090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
-        <v>476</v>
+        <v>288</v>
       </c>
       <c r="I20" s="7">
-        <v>512775</v>
+        <v>303588</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
-        <v>915</v>
+        <v>529</v>
       </c>
       <c r="N20" s="7">
-        <v>974369</v>
+        <v>560679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,49 +6500,49 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7">
+        <v>17067</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6677</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="7">
-        <v>24913</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="7">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>12866</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M21" s="7">
-        <v>31</v>
-      </c>
       <c r="N21" s="7">
-        <v>37779</v>
+        <v>23744</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,49 +6551,49 @@
         <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7">
-        <v>75207</v>
+        <v>36996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>66556</v>
+        <v>30711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="N22" s="7">
-        <v>141763</v>
+        <v>67707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,10 +6602,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>528</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>561714</v>
+        <v>311153</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -6551,10 +6617,10 @@
         <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>548</v>
+        <v>324</v>
       </c>
       <c r="I23" s="7">
-        <v>592197</v>
+        <v>340977</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -6566,10 +6632,10 @@
         <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>1076</v>
+        <v>611</v>
       </c>
       <c r="N23" s="7">
-        <v>1153911</v>
+        <v>652131</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -6631,7 +6697,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,10 +6715,10 @@
         <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -6661,13 +6727,13 @@
         <v>167574</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="M25" s="7">
         <v>312</v>
@@ -6676,13 +6742,13 @@
         <v>332918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6763,13 @@
         <v>923</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6712,13 +6778,13 @@
         <v>2745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -6727,13 +6793,13 @@
         <v>3668</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6814,13 @@
         <v>26732</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="H27" s="7">
         <v>24</v>
@@ -6763,13 +6829,13 @@
         <v>24178</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="M27" s="7">
         <v>49</v>
@@ -6778,13 +6844,13 @@
         <v>50909</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6873,7 +6939,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6888,7 +6954,7 @@
         <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6969,13 @@
         <v>209600</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -6918,13 +6984,13 @@
         <v>224644</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="M30" s="7">
         <v>415</v>
@@ -6933,13 +6999,13 @@
         <v>434244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -6975,7 +7041,7 @@
         <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -6987,10 +7053,10 @@
         <v>173</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7071,13 @@
         <v>37484</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -7020,13 +7086,13 @@
         <v>37098</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="M32" s="7">
         <v>71</v>
@@ -7035,13 +7101,13 @@
         <v>74582</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7226,13 @@
         <v>492999</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="H35" s="7">
         <v>509</v>
@@ -7175,13 +7241,13 @@
         <v>555756</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="M35" s="7">
         <v>968</v>
@@ -7190,13 +7256,13 @@
         <v>1048755</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7277,13 @@
         <v>13406</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -7226,13 +7292,13 @@
         <v>12925</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -7241,13 +7307,13 @@
         <v>26331</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7328,13 @@
         <v>67253</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7277,13 +7343,13 @@
         <v>56497</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="M37" s="7">
         <v>116</v>
@@ -7292,13 +7358,13 @@
         <v>123750</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,7 +7468,7 @@
         <v>14</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7483,13 @@
         <v>533125</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="H40" s="7">
         <v>560</v>
@@ -7432,13 +7498,13 @@
         <v>605514</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="M40" s="7">
         <v>1056</v>
@@ -7447,13 +7513,13 @@
         <v>1138639</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7534,13 @@
         <v>30213</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="H41" s="7">
         <v>29</v>
@@ -7486,7 +7552,7 @@
         <v>139</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>280</v>
@@ -7498,10 +7564,10 @@
         <v>64958</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>281</v>
@@ -7519,13 +7585,13 @@
         <v>66521</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="H42" s="7">
         <v>55</v>
@@ -7534,13 +7600,13 @@
         <v>60020</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="M42" s="7">
         <v>112</v>
@@ -7549,13 +7615,13 @@
         <v>126541</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7695,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7644,7 +7710,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -7659,7 +7725,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7740,13 @@
         <v>2413461</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="H45" s="7">
         <v>2520</v>
@@ -7689,13 +7755,13 @@
         <v>2717697</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="M45" s="7">
         <v>4797</v>
@@ -7704,13 +7770,13 @@
         <v>5131158</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,10 +7794,10 @@
         <v>66</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="H46" s="7">
         <v>70</v>
@@ -7746,7 +7812,7 @@
         <v>277</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="M46" s="7">
         <v>154</v>
@@ -7755,13 +7821,13 @@
         <v>178315</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>484</v>
+        <v>386</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7842,13 @@
         <v>394365</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="H47" s="7">
         <v>321</v>
@@ -7791,13 +7857,13 @@
         <v>344862</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="M47" s="7">
         <v>687</v>
@@ -7806,13 +7872,13 @@
         <v>739227</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18F969E-A433-41DF-9167-7319348CB0F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A070570-93D7-465B-80EA-C078A6598C66}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7909,7 +7975,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8016,7 +8082,7 @@
         <v>992</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -8037,7 +8103,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -8067,13 +8133,13 @@
         <v>206973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -8082,13 +8148,13 @@
         <v>201542</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="M5" s="7">
         <v>382</v>
@@ -8097,13 +8163,13 @@
         <v>408514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8184,13 @@
         <v>5656</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -8133,7 +8199,7 @@
         <v>12607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>94</v>
@@ -8148,13 +8214,13 @@
         <v>18263</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8235,13 @@
         <v>31597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -8184,13 +8250,13 @@
         <v>32186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -8199,13 +8265,13 @@
         <v>63783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>517</v>
+        <v>401</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,7 +8345,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8324,13 +8390,13 @@
         <v>340755</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7">
         <v>344</v>
@@ -8339,13 +8405,13 @@
         <v>364293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>666</v>
@@ -8354,13 +8420,13 @@
         <v>705048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8441,13 @@
         <v>2930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -8390,13 +8456,13 @@
         <v>10162</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -8405,13 +8471,13 @@
         <v>13092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8492,13 @@
         <v>19481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -8441,13 +8507,13 @@
         <v>18872</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -8456,10 +8522,10 @@
         <v>38352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>103</v>
@@ -8536,7 +8602,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8551,7 +8617,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8566,7 +8632,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,16 +8644,16 @@
         <v>271</v>
       </c>
       <c r="D15" s="7">
-        <v>260908</v>
+        <v>260909</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="H15" s="7">
         <v>276</v>
@@ -8596,13 +8662,13 @@
         <v>280511</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="M15" s="7">
         <v>547</v>
@@ -8611,13 +8677,13 @@
         <v>541420</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>240</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,10 +8698,10 @@
         <v>6379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>137</v>
@@ -8653,7 +8719,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -8662,13 +8728,13 @@
         <v>7281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8680,16 +8746,16 @@
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>23218</v>
+        <v>23219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -8698,13 +8764,13 @@
         <v>26351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>558</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -8713,13 +8779,13 @@
         <v>49570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8731,7 +8797,7 @@
         <v>303</v>
       </c>
       <c r="D18" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -8787,13 +8853,13 @@
         <v>1037</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>562</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8808,7 +8874,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>552</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -8817,7 +8883,7 @@
         <v>1037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
@@ -8838,13 +8904,13 @@
         <v>289979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="H20" s="7">
         <v>285</v>
@@ -8853,13 +8919,13 @@
         <v>306917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>561</v>
@@ -8868,13 +8934,13 @@
         <v>596896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,7 +8955,7 @@
         <v>2822</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>573</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>260</v>
@@ -8904,13 +8970,13 @@
         <v>12342</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -8919,10 +8985,10 @@
         <v>15164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>247</v>
@@ -8940,13 +9006,13 @@
         <v>36209</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -8955,13 +9021,13 @@
         <v>29602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -8970,13 +9036,13 @@
         <v>65810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9044,13 +9110,13 @@
         <v>1020</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9074,13 +9140,13 @@
         <v>1020</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9095,13 +9161,13 @@
         <v>107076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -9110,13 +9176,13 @@
         <v>124995</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
@@ -9125,10 +9191,10 @@
         <v>232071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>124</v>
@@ -9152,7 +9218,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -9161,13 +9227,13 @@
         <v>1939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -9176,13 +9242,13 @@
         <v>3851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9197,13 +9263,13 @@
         <v>9214</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="H27" s="7">
         <v>18</v>
@@ -9212,13 +9278,13 @@
         <v>18566</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -9227,13 +9293,13 @@
         <v>27780</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9322,7 +9388,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9352,13 +9418,13 @@
         <v>210428</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="H30" s="7">
         <v>219</v>
@@ -9367,13 +9433,13 @@
         <v>225294</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="M30" s="7">
         <v>426</v>
@@ -9382,13 +9448,13 @@
         <v>435723</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9424,7 +9490,7 @@
         <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -9433,10 +9499,10 @@
         <v>2978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>30</v>
@@ -9454,13 +9520,13 @@
         <v>23187</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -9469,13 +9535,13 @@
         <v>18865</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -9484,13 +9550,13 @@
         <v>42052</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>625</v>
+        <v>397</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9612,10 +9678,10 @@
         <v>52</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="H35" s="7">
         <v>405</v>
@@ -9624,13 +9690,13 @@
         <v>423784</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="M35" s="7">
         <v>741</v>
@@ -9639,13 +9705,13 @@
         <v>810323</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9660,13 +9726,13 @@
         <v>17102</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -9675,13 +9741,13 @@
         <v>17185</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -9690,13 +9756,13 @@
         <v>34287</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9711,13 +9777,13 @@
         <v>37618</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -9726,10 +9792,10 @@
         <v>44811</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>75</v>
@@ -9741,13 +9807,13 @@
         <v>82429</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,7 +9887,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>562</v>
+        <v>376</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -9830,13 +9896,13 @@
         <v>1107</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -9866,28 +9932,28 @@
         <v>558583</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="H40" s="7">
         <v>547</v>
       </c>
       <c r="I40" s="7">
-        <v>595148</v>
+        <v>595147</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="M40" s="7">
         <v>1087</v>
@@ -9896,13 +9962,13 @@
         <v>1153729</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9917,13 +9983,13 @@
         <v>15202</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="H41" s="7">
         <v>26</v>
@@ -9932,13 +9998,13 @@
         <v>30277</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="M41" s="7">
         <v>39</v>
@@ -9947,13 +10013,13 @@
         <v>45479</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9968,28 +10034,28 @@
         <v>65546</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H42" s="7">
         <v>61</v>
       </c>
       <c r="I42" s="7">
-        <v>64811</v>
+        <v>64810</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="M42" s="7">
         <v>123</v>
@@ -9998,13 +10064,13 @@
         <v>130357</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10031,7 +10097,7 @@
         <v>635</v>
       </c>
       <c r="I43" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>48</v>
@@ -10093,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -10105,10 +10171,10 @@
         <v>231</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,13 +10189,13 @@
         <v>2361244</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="H45" s="7">
         <v>2403</v>
@@ -10138,13 +10204,13 @@
         <v>2522483</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>653</v>
-      </c>
       <c r="L45" s="7" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="M45" s="7">
         <v>4647</v>
@@ -10153,13 +10219,13 @@
         <v>4883727</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>354</v>
+        <v>703</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10174,10 +10240,10 @@
         <v>52003</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>133</v>
@@ -10192,10 +10258,10 @@
         <v>187</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="M46" s="7">
         <v>128</v>
@@ -10204,13 +10270,13 @@
         <v>140395</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10225,13 +10291,13 @@
         <v>246071</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="H47" s="7">
         <v>241</v>
@@ -10240,13 +10306,13 @@
         <v>254062</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="M47" s="7">
         <v>475</v>
@@ -10255,13 +10321,13 @@
         <v>500132</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>282</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10341,7 +10407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9B46A6-F41F-4F6F-92B2-B6166C27E733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663B24A1-8837-42DD-B905-D06BA959C252}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10358,7 +10424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10471,7 +10537,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10486,7 +10552,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10513,46 +10579,46 @@
         <v>295</v>
       </c>
       <c r="D5" s="7">
-        <v>237261</v>
+        <v>282501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="H5" s="7">
         <v>508</v>
       </c>
       <c r="I5" s="7">
-        <v>258401</v>
+        <v>276193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="M5" s="7">
         <v>803</v>
       </c>
       <c r="N5" s="7">
-        <v>495662</v>
+        <v>558694</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>704</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10564,46 +10630,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2590</v>
+        <v>3098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>470</v>
+        <v>729</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>706</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>2394</v>
+        <v>2466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>707</v>
+        <v>611</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>130</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>4984</v>
+        <v>5564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>730</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>708</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>709</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10615,46 +10681,46 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>15419</v>
+        <v>19831</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>711</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>712</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>8649</v>
+        <v>8948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>732</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>24069</v>
+        <v>28779</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>716</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10666,7 +10732,7 @@
         <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -10681,7 +10747,7 @@
         <v>531</v>
       </c>
       <c r="I8" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -10696,7 +10762,7 @@
         <v>848</v>
       </c>
       <c r="N8" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -10770,46 +10836,46 @@
         <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>466673</v>
+        <v>462423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="H10" s="7">
         <v>661</v>
       </c>
       <c r="I10" s="7">
-        <v>513359</v>
+        <v>476781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="M10" s="7">
         <v>1008</v>
       </c>
       <c r="N10" s="7">
-        <v>980033</v>
+        <v>939204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>743</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10821,46 +10887,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7607</v>
+        <v>7541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>726</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2772</v>
+        <v>2563</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>10379</v>
+        <v>10104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>708</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10872,46 +10938,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>36966</v>
+        <v>40560</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>728</v>
+        <v>687</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>26684</v>
+        <v>24695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>486</v>
+        <v>748</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>749</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
       </c>
       <c r="N12" s="7">
-        <v>63650</v>
+        <v>65255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>132</v>
+        <v>561</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>461</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10923,7 +10989,7 @@
         <v>374</v>
       </c>
       <c r="D13" s="7">
-        <v>511245</v>
+        <v>510524</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -10938,7 +11004,7 @@
         <v>700</v>
       </c>
       <c r="I13" s="7">
-        <v>542816</v>
+        <v>504039</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -10953,7 +11019,7 @@
         <v>1074</v>
       </c>
       <c r="N13" s="7">
-        <v>1054062</v>
+        <v>1014563</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -10985,7 +11051,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11027,46 +11093,46 @@
         <v>320</v>
       </c>
       <c r="D15" s="7">
-        <v>289686</v>
+        <v>284539</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>734</v>
+        <v>151</v>
       </c>
       <c r="H15" s="7">
         <v>486</v>
       </c>
       <c r="I15" s="7">
-        <v>336553</v>
+        <v>314589</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>736</v>
+        <v>633</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="M15" s="7">
         <v>806</v>
       </c>
       <c r="N15" s="7">
-        <v>626239</v>
+        <v>599128</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11078,46 +11144,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3893</v>
+        <v>3759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>603</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>538</v>
+        <v>683</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>6035</v>
+        <v>6034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>759</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>9928</v>
+        <v>9793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>538</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11129,46 +11195,46 @@
         <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>17325</v>
+        <v>16539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>760</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>761</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>16836</v>
+        <v>15747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>744</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
       </c>
       <c r="N17" s="7">
-        <v>34160</v>
+        <v>32286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>765</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>745</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11180,7 +11246,7 @@
         <v>348</v>
       </c>
       <c r="D18" s="7">
-        <v>310903</v>
+        <v>304837</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -11195,7 +11261,7 @@
         <v>518</v>
       </c>
       <c r="I18" s="7">
-        <v>359424</v>
+        <v>336370</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -11210,7 +11276,7 @@
         <v>866</v>
       </c>
       <c r="N18" s="7">
-        <v>670327</v>
+        <v>641207</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -11242,7 +11308,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -11257,7 +11323,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -11284,46 +11350,46 @@
         <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>299525</v>
+        <v>291008</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="H20" s="7">
         <v>573</v>
       </c>
       <c r="I20" s="7">
-        <v>414109</v>
+        <v>462319</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="M20" s="7">
         <v>845</v>
       </c>
       <c r="N20" s="7">
-        <v>713635</v>
+        <v>753328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>773</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11335,46 +11401,46 @@
         <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>8060</v>
+        <v>7506</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>485</v>
+        <v>276</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>2105</v>
+        <v>1918</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>756</v>
+        <v>83</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>10166</v>
+        <v>9423</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>757</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>552</v>
+        <v>402</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11386,46 +11452,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>12065</v>
+        <v>11606</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>9937</v>
+        <v>9228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>704</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>760</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>726</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>22002</v>
+        <v>20834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>713</v>
+        <v>778</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11437,7 +11503,7 @@
         <v>288</v>
       </c>
       <c r="D23" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -11452,7 +11518,7 @@
         <v>594</v>
       </c>
       <c r="I23" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -11467,7 +11533,7 @@
         <v>882</v>
       </c>
       <c r="N23" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -11499,7 +11565,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11514,7 +11580,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11529,7 +11595,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11541,46 +11607,46 @@
         <v>239</v>
       </c>
       <c r="D25" s="7">
-        <v>172819</v>
+        <v>157247</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>764</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>765</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="H25" s="7">
         <v>443</v>
       </c>
       <c r="I25" s="7">
-        <v>211984</v>
+        <v>190434</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="M25" s="7">
         <v>682</v>
       </c>
       <c r="N25" s="7">
-        <v>384802</v>
+        <v>347682</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11592,46 +11658,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>527</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>704</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>787</v>
+        <v>723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>773</v>
+        <v>603</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>1540</v>
+        <v>1398</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>531</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11643,46 +11709,46 @@
         <v>23</v>
       </c>
       <c r="D27" s="7">
-        <v>11497</v>
+        <v>10507</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>212</v>
+        <v>793</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="H27" s="7">
         <v>32</v>
       </c>
       <c r="I27" s="7">
-        <v>12154</v>
+        <v>11134</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>359</v>
+        <v>707</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
       </c>
       <c r="N27" s="7">
-        <v>23651</v>
+        <v>21641</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>252</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11694,7 +11760,7 @@
         <v>263</v>
       </c>
       <c r="D28" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -11709,7 +11775,7 @@
         <v>477</v>
       </c>
       <c r="I28" s="7">
-        <v>224925</v>
+        <v>202291</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -11724,7 +11790,7 @@
         <v>740</v>
       </c>
       <c r="N28" s="7">
-        <v>409993</v>
+        <v>370721</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -11756,7 +11822,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -11771,7 +11837,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -11798,46 +11864,46 @@
         <v>317</v>
       </c>
       <c r="D30" s="7">
-        <v>243112</v>
+        <v>236859</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>772</v>
+        <v>803</v>
       </c>
       <c r="H30" s="7">
         <v>407</v>
       </c>
       <c r="I30" s="7">
-        <v>247232</v>
+        <v>230552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>804</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="M30" s="7">
         <v>724</v>
       </c>
       <c r="N30" s="7">
-        <v>490343</v>
+        <v>467411</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11849,46 +11915,46 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>2654</v>
+        <v>2518</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>562</v>
+        <v>348</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>744</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>2167</v>
+        <v>2002</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>232</v>
+        <v>424</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>116</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>336</v>
+        <v>810</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>4821</v>
+        <v>4519</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>774</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11900,46 +11966,46 @@
         <v>24</v>
       </c>
       <c r="D32" s="7">
-        <v>15210</v>
+        <v>14542</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>790</v>
+        <v>540</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
       </c>
       <c r="I32" s="7">
-        <v>15522</v>
+        <v>14434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>658</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>686</v>
+        <v>814</v>
       </c>
       <c r="M32" s="7">
         <v>53</v>
       </c>
       <c r="N32" s="7">
-        <v>30732</v>
+        <v>28975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11951,7 +12017,7 @@
         <v>344</v>
       </c>
       <c r="D33" s="7">
-        <v>260976</v>
+        <v>253918</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -11966,7 +12032,7 @@
         <v>441</v>
       </c>
       <c r="I33" s="7">
-        <v>264920</v>
+        <v>246988</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -11981,7 +12047,7 @@
         <v>785</v>
       </c>
       <c r="N33" s="7">
-        <v>525896</v>
+        <v>500906</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -12028,7 +12094,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -12043,7 +12109,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12055,46 +12121,46 @@
         <v>519</v>
       </c>
       <c r="D35" s="7">
-        <v>541648</v>
+        <v>534516</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="H35" s="7">
         <v>846</v>
       </c>
       <c r="I35" s="7">
-        <v>723701</v>
+        <v>775325</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>802</v>
+        <v>180</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="M35" s="7">
         <v>1365</v>
       </c>
       <c r="N35" s="7">
-        <v>1265348</v>
+        <v>1309840</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>805</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12106,46 +12172,46 @@
         <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>23808</v>
+        <v>23117</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
       </c>
       <c r="I36" s="7">
-        <v>20635</v>
+        <v>18767</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>84</v>
+        <v>728</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>810</v>
+        <v>390</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
       </c>
       <c r="N36" s="7">
-        <v>44443</v>
+        <v>41884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>811</v>
+        <v>386</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>812</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>358</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12157,46 +12223,46 @@
         <v>34</v>
       </c>
       <c r="D37" s="7">
-        <v>34971</v>
+        <v>35389</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>601</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>814</v>
+        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>46</v>
       </c>
       <c r="I37" s="7">
-        <v>36440</v>
+        <v>33256</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>815</v>
+        <v>104</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>816</v>
+        <v>660</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
       </c>
       <c r="N37" s="7">
-        <v>71411</v>
+        <v>68644</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>818</v>
+        <v>362</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12208,7 +12274,7 @@
         <v>575</v>
       </c>
       <c r="D38" s="7">
-        <v>600427</v>
+        <v>593021</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>48</v>
@@ -12223,7 +12289,7 @@
         <v>920</v>
       </c>
       <c r="I38" s="7">
-        <v>780776</v>
+        <v>827348</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>48</v>
@@ -12238,7 +12304,7 @@
         <v>1495</v>
       </c>
       <c r="N38" s="7">
-        <v>1381202</v>
+        <v>1420369</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>48</v>
@@ -12270,7 +12336,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -12312,46 +12378,46 @@
         <v>604</v>
       </c>
       <c r="D40" s="7">
-        <v>649802</v>
+        <v>550597</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="H40" s="7">
         <v>925</v>
       </c>
       <c r="I40" s="7">
-        <v>758873</v>
+        <v>627394</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>503</v>
+        <v>837</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>180</v>
+        <v>838</v>
       </c>
       <c r="M40" s="7">
         <v>1529</v>
       </c>
       <c r="N40" s="7">
-        <v>1408674</v>
+        <v>1177991</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12363,46 +12429,46 @@
         <v>8</v>
       </c>
       <c r="D41" s="7">
-        <v>8085</v>
+        <v>6946</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>214</v>
+        <v>842</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>818</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>589</v>
+        <v>64</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
       </c>
       <c r="I41" s="7">
-        <v>4939</v>
+        <v>4175</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>827</v>
+        <v>375</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>146</v>
+        <v>843</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
       </c>
       <c r="N41" s="7">
-        <v>13024</v>
+        <v>11121</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>68</v>
+        <v>844</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>183</v>
+        <v>438</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>828</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12414,46 +12480,46 @@
         <v>131</v>
       </c>
       <c r="D42" s="7">
-        <v>175681</v>
+        <v>350464</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>830</v>
+        <v>440</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="H42" s="7">
         <v>110</v>
       </c>
       <c r="I42" s="7">
-        <v>89089</v>
+        <v>73334</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="M42" s="7">
         <v>241</v>
       </c>
       <c r="N42" s="7">
-        <v>264770</v>
+        <v>423798</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12465,7 +12531,7 @@
         <v>743</v>
       </c>
       <c r="D43" s="7">
-        <v>833568</v>
+        <v>908007</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>48</v>
@@ -12480,7 +12546,7 @@
         <v>1042</v>
       </c>
       <c r="I43" s="7">
-        <v>852901</v>
+        <v>704902</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>48</v>
@@ -12495,7 +12561,7 @@
         <v>1785</v>
       </c>
       <c r="N43" s="7">
-        <v>1686468</v>
+        <v>1612909</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>48</v>
@@ -12527,7 +12593,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>838</v>
+        <v>729</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -12557,7 +12623,7 @@
         <v>14</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12569,46 +12635,46 @@
         <v>2913</v>
       </c>
       <c r="D45" s="7">
-        <v>2900524</v>
+        <v>2799690</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>855</v>
       </c>
       <c r="H45" s="7">
         <v>4849</v>
       </c>
       <c r="I45" s="7">
-        <v>3464213</v>
+        <v>3353588</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="M45" s="7">
         <v>7762</v>
       </c>
       <c r="N45" s="7">
-        <v>6364737</v>
+        <v>6153278</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12620,46 +12686,46 @@
         <v>53</v>
       </c>
       <c r="D46" s="7">
-        <v>57450</v>
+        <v>55159</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>213</v>
+        <v>600</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>332</v>
+        <v>843</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>847</v>
+        <v>439</v>
       </c>
       <c r="H46" s="7">
         <v>61</v>
       </c>
       <c r="I46" s="7">
-        <v>41834</v>
+        <v>38648</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>182</v>
+        <v>623</v>
       </c>
       <c r="M46" s="7">
         <v>114</v>
       </c>
       <c r="N46" s="7">
-        <v>99284</v>
+        <v>93807</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>848</v>
+        <v>61</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>146</v>
+        <v>461</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12671,46 +12737,46 @@
         <v>286</v>
       </c>
       <c r="D47" s="7">
-        <v>319134</v>
+        <v>499437</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>554</v>
+        <v>190</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="H47" s="7">
         <v>313</v>
       </c>
       <c r="I47" s="7">
-        <v>215311</v>
+        <v>190775</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>854</v>
+        <v>129</v>
       </c>
       <c r="M47" s="7">
         <v>599</v>
       </c>
       <c r="N47" s="7">
-        <v>534445</v>
+        <v>690212</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12722,7 +12788,7 @@
         <v>3252</v>
       </c>
       <c r="D48" s="7">
-        <v>3277108</v>
+        <v>3354286</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>48</v>
@@ -12737,7 +12803,7 @@
         <v>5223</v>
       </c>
       <c r="I48" s="7">
-        <v>3721358</v>
+        <v>3583011</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>48</v>
@@ -12752,7 +12818,7 @@
         <v>8475</v>
       </c>
       <c r="N48" s="7">
-        <v>6998466</v>
+        <v>6937297</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>48</v>
